--- a/data/trans_dic/P25A$otro-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25A$otro-Provincia-trans_dic.xlsx
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1806018592190239</v>
+        <v>0.1840716903467374</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07207486029689048</v>
+        <v>0.05807670336276569</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2131645615945531</v>
+        <v>0.2101463108177441</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03244583868417764</v>
+        <v>0.02881917500206982</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.008606375744054729</v>
+        <v>0.008469121068610383</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.222828335503414</v>
+        <v>0.2297827057592343</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09144676045509234</v>
+        <v>0.09213269151508592</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08189351776607458</v>
+        <v>0.08201845548579263</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3894216695275503</v>
+        <v>0.3888680456217011</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4929340835825666</v>
+        <v>0.5110324959856243</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1616987525714746</v>
+        <v>0.1932620697763003</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4939589658688833</v>
+        <v>0.4960316988972872</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1885211901213321</v>
+        <v>0.1865592087987365</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08470513847767257</v>
+        <v>0.07791088433437002</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3912017063061256</v>
+        <v>0.3937673606719463</v>
       </c>
     </row>
     <row r="7">
@@ -787,11 +787,11 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007739521366011798</v>
+        <v>0.007666978924409607</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.07970002476540013</v>
+        <v>0.07907174469319452</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02168950671005277</v>
+        <v>0.02141735190257578</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.005411019597616005</v>
+        <v>0.005500832101473935</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
@@ -817,29 +817,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0641033181699126</v>
+        <v>0.06418125900146907</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06642234522051414</v>
+        <v>0.06784555719939298</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.3948455532670604</v>
+        <v>0.3637023404917281</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09083668873369435</v>
+        <v>0.08654390494142539</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1685169176121053</v>
+        <v>0.1638575097905384</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09988212770421684</v>
+        <v>0.09755840479104798</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05221048055519754</v>
+        <v>0.05439323135945831</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06672441489365225</v>
+        <v>0.05596533184233421</v>
       </c>
     </row>
     <row r="10">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01606769020689946</v>
+        <v>0.01582436092741065</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02535612626402113</v>
+        <v>0.0244829523541681</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1368883414694418</v>
+        <v>0.1346139352104712</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05150804412681632</v>
+        <v>0.06855757221378597</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09738125257480157</v>
+        <v>0.09658378731215167</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4067817112881634</v>
+        <v>0.4333954833517102</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1626014776368254</v>
+        <v>0.1523864275638485</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1429712906875202</v>
+        <v>0.1349550542568736</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1373605803759754</v>
+        <v>0.1490558772469109</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06226598884060571</v>
+        <v>0.0616152521136398</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08045266475129137</v>
+        <v>0.06975873167842522</v>
       </c>
     </row>
     <row r="13">
@@ -1001,26 +1001,26 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01053143726141108</v>
+        <v>0.01019706667243762</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1626925854783691</v>
+        <v>0.1591086410000576</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
-        <v>0.1473241402304542</v>
+        <v>0.1364098180610321</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.008535368148722172</v>
+        <v>0.008491559298465963</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01248856619211848</v>
+        <v>0.01245942181412622</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1742203092702104</v>
+        <v>0.1763381986725593</v>
       </c>
     </row>
     <row r="15">
@@ -1031,29 +1031,29 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1006010799500293</v>
+        <v>0.1082220166716948</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1208020966771405</v>
+        <v>0.1196504620891941</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3448141095211244</v>
+        <v>0.3466605526009831</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1476892230381422</v>
+        <v>0.161850190632898</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.4004020809749317</v>
+        <v>0.4082145730436075</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09746840135248577</v>
+        <v>0.09436677061931968</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09120175241467159</v>
+        <v>0.09913513013292787</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3292580839524817</v>
+        <v>0.3247442321473185</v>
       </c>
     </row>
     <row r="16">
@@ -1135,22 +1135,22 @@
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.2471986376531739</v>
+        <v>0.2264554428841769</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2567966614848278</v>
+        <v>0.2556798459361158</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3326784097088127</v>
+        <v>0.3320877579204466</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1030829777917461</v>
+        <v>0.08706432763154198</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09159545080053327</v>
+        <v>0.09607179619343578</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1358701033657031</v>
+        <v>0.1457567340327492</v>
       </c>
     </row>
     <row r="19">
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02204290018340451</v>
+        <v>0.02261929058388969</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -1215,16 +1215,16 @@
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0531215264204823</v>
+        <v>0.05183276798168768</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01342550576977755</v>
+        <v>0.01361812210552803</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.009426209808449184</v>
+        <v>0.009332081181828003</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04517301340079171</v>
+        <v>0.04500294722202437</v>
       </c>
     </row>
     <row r="21">
@@ -1235,31 +1235,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1184283523288784</v>
+        <v>0.1141761151508429</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04649952092765244</v>
+        <v>0.05867496251951704</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1958220233184953</v>
+        <v>0.1994325849072103</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2817596628507936</v>
+        <v>0.2219795125036444</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.384186547571671</v>
+        <v>0.3690534841929672</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3974973276373694</v>
+        <v>0.4045729993105062</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.105772190359546</v>
+        <v>0.1100319589564055</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1120010558046744</v>
+        <v>0.1077110552864006</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2064578824656745</v>
+        <v>0.2020779858056199</v>
       </c>
     </row>
     <row r="22">
@@ -1315,25 +1315,25 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03213749420237345</v>
+        <v>0.0331992835703037</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05900802384418935</v>
+        <v>0.05941948747586052</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04281802357082338</v>
+        <v>0.04169860199665648</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03514915854959445</v>
+        <v>0.03476906326982127</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02343446844804243</v>
+        <v>0.02297667775798581</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01786567024062263</v>
+        <v>0.01698975969741526</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0449816101853301</v>
+        <v>0.04416441449502431</v>
       </c>
     </row>
     <row r="24">
@@ -1344,31 +1344,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06446702977376979</v>
+        <v>0.06337230797245604</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02785596217825092</v>
+        <v>0.02800687243615097</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1219565938060125</v>
+        <v>0.1290790080658376</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3385820855387201</v>
+        <v>0.329071106703138</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1668920871412662</v>
+        <v>0.1594524071574318</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1578071109374884</v>
+        <v>0.1643901183677144</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1075049503827525</v>
+        <v>0.1049589594140593</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0692747996554718</v>
+        <v>0.06395270542608772</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1199010263427367</v>
+        <v>0.1199075818396749</v>
       </c>
     </row>
     <row r="25">
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.008165051162451257</v>
+        <v>0.007964533158882478</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02719084517189021</v>
+        <v>0.02703393610161143</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>0</v>
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01366613453697354</v>
+        <v>0.01389201093723733</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01047308639190541</v>
+        <v>0.01076771340631728</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>0</v>
@@ -1453,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05054441084769252</v>
+        <v>0.04845737003729755</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08090590016737022</v>
+        <v>0.07404426322739818</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05628353598393201</v>
+        <v>0.05462382887066771</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1585392926152528</v>
+        <v>0.1639773572018739</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1069780239371437</v>
+        <v>0.1086580340647699</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.07956630580475207</v>
+        <v>0.07022372142786222</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.06646204119788468</v>
+        <v>0.06687206889766771</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.06395790324030255</v>
+        <v>0.05948709578877914</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04196867580448443</v>
+        <v>0.03834844104730406</v>
       </c>
     </row>
     <row r="28">
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01227294191809591</v>
+        <v>0.01383412156540324</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01212304406111608</v>
+        <v>0.01241489368249413</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.07374173301770416</v>
+        <v>0.07149427536276004</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.07402885006230274</v>
+        <v>0.07261871591919442</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.02971085658554116</v>
+        <v>0.02941456597556651</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.09190610851847164</v>
+        <v>0.09701412316007132</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.03493428982251258</v>
+        <v>0.03515896717528328</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.02077588089349098</v>
+        <v>0.02133134986575567</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.08871142418112429</v>
+        <v>0.0876867144835464</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1562,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0366819330260969</v>
+        <v>0.03824169442862028</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03415557892261419</v>
+        <v>0.03448261401592706</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1202609059253611</v>
+        <v>0.1208931596728652</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1539691763885337</v>
+        <v>0.1538926322410524</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.07575033240690114</v>
+        <v>0.07503793283111447</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1693644430624982</v>
+        <v>0.1706020966101033</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.06526313921903636</v>
+        <v>0.06344152492237816</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.04091321152265709</v>
+        <v>0.04236494353213351</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1300490643128646</v>
+        <v>0.1310547499734259</v>
       </c>
     </row>
     <row r="31">
@@ -1825,25 +1825,25 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14260</v>
+        <v>14534</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1447</v>
+        <v>1166</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11081</v>
+        <v>10924</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2158</v>
+        <v>1917</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1043</v>
+        <v>1026</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>29177</v>
+        <v>30088</v>
       </c>
     </row>
     <row r="7">
@@ -1854,31 +1854,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4248</v>
+        <v>4279</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6642</v>
+        <v>6652</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>30749</v>
+        <v>30705</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9895</v>
+        <v>10258</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6473</v>
+        <v>7737</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>25676</v>
+        <v>25784</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12541</v>
+        <v>12410</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>10261</v>
+        <v>9438</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>51224</v>
+        <v>51560</v>
       </c>
     </row>
     <row r="8">
@@ -1966,11 +1966,11 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>2061</v>
+        <v>2044</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1979,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3030</v>
+        <v>2992</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>978</v>
+        <v>994</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -1996,29 +1996,29 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7298</v>
+        <v>7307</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8033</v>
+        <v>8205</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>10208</v>
+        <v>9403</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5433</v>
+        <v>5176</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>4936</v>
+        <v>4800</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>13954</v>
+        <v>13629</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>9437</v>
+        <v>9832</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>6781</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="12">
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1977</v>
+        <v>1909</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>0</v>
@@ -2138,31 +2138,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8725</v>
+        <v>8580</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4239</v>
+        <v>5642</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6038</v>
+        <v>5989</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5791</v>
+        <v>6170</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5330</v>
+        <v>4995</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3947</v>
+        <v>3726</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10711</v>
+        <v>11622</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7166</v>
+        <v>7091</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7210</v>
+        <v>6251</v>
       </c>
     </row>
     <row r="16">
@@ -2250,26 +2250,26 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1110</v>
+        <v>1075</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14169</v>
+        <v>13857</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>6580</v>
+        <v>6092</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>22955</v>
+        <v>23234</v>
       </c>
     </row>
     <row r="19">
@@ -2280,29 +2280,29 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7634</v>
+        <v>8212</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12737</v>
+        <v>12616</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>30031</v>
+        <v>30192</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>5565</v>
+        <v>6099</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>17883</v>
+        <v>18232</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>11069</v>
+        <v>10716</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13856</v>
+        <v>15062</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>43382</v>
+        <v>42787</v>
       </c>
     </row>
     <row r="20">
@@ -2419,22 +2419,22 @@
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>7176</v>
+        <v>6574</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6896</v>
+        <v>6866</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5684</v>
+        <v>5674</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7230</v>
+        <v>6107</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>7078</v>
+        <v>7424</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6632</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="24">
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>978</v>
+        <v>1004</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
@@ -2534,16 +2534,16 @@
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>892</v>
+        <v>871</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>962</v>
+        <v>976</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2763</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="27">
@@ -2554,31 +2554,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6261</v>
+        <v>6036</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3865</v>
+        <v>4877</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8689</v>
+        <v>8850</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5300</v>
+        <v>4176</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8394</v>
+        <v>8063</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>6678</v>
+        <v>6797</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>7582</v>
+        <v>7887</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>11756</v>
+        <v>11305</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>12630</v>
+        <v>12362</v>
       </c>
     </row>
     <row r="28">
@@ -2669,25 +2669,25 @@
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4079</v>
+        <v>4213</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1940</v>
+        <v>1953</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>3931</v>
+        <v>3829</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2968</v>
+        <v>2936</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2930</v>
+        <v>2873</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>4544</v>
+        <v>4321</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>9507</v>
+        <v>9334</v>
       </c>
     </row>
     <row r="31">
@@ -2698,31 +2698,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>5941</v>
+        <v>5840</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>4527</v>
+        <v>4552</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>15477</v>
+        <v>16381</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>11129</v>
+        <v>10817</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>15324</v>
+        <v>14641</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>13325</v>
+        <v>13881</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>13441</v>
+        <v>13123</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>17620</v>
+        <v>16266</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>25341</v>
+        <v>25342</v>
       </c>
     </row>
     <row r="32">
@@ -2810,13 +2810,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1063</v>
+        <v>1037</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1963</v>
+        <v>1951</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2879</v>
+        <v>2927</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>2065</v>
+        <v>2123</v>
       </c>
       <c r="K34" s="6" t="n">
         <v>0</v>
@@ -2842,31 +2842,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>7001</v>
+        <v>6712</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>10536</v>
+        <v>9642</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>5746</v>
+        <v>5577</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>11444</v>
+        <v>11836</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>7160</v>
+        <v>7272</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>5088</v>
+        <v>4490</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>14003</v>
+        <v>14089</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>12609</v>
+        <v>11728</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>6969</v>
+        <v>6367</v>
       </c>
     </row>
     <row r="36">
@@ -2951,31 +2951,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>7665</v>
+        <v>8640</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>9893</v>
+        <v>10131</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>44650</v>
+        <v>43289</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>18562</v>
+        <v>18208</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>11485</v>
+        <v>11371</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>30863</v>
+        <v>32578</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>30578</v>
+        <v>30775</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>24986</v>
+        <v>25654</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>83504</v>
+        <v>82540</v>
       </c>
     </row>
     <row r="39">
@@ -2986,31 +2986,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>22910</v>
+        <v>23885</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>27873</v>
+        <v>28140</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>72817</v>
+        <v>73200</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>38605</v>
+        <v>38586</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>29282</v>
+        <v>29007</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>56874</v>
+        <v>57290</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>57125</v>
+        <v>55531</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>49204</v>
+        <v>50950</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>122416</v>
+        <v>123362</v>
       </c>
     </row>
     <row r="40">
